--- a/docs/omh-header.xlsx
+++ b/docs/omh-header.xlsx
@@ -499,9 +499,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.75" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -509,7 +509,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -526,7 +526,7 @@
     <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="10.21484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -534,7 +534,7 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="55.6953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="52.8671875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.1015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/docs/omh-header.xlsx
+++ b/docs/omh-header.xlsx
@@ -137,7 +137,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -153,7 +153,7 @@
     <t>OmhHeader.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -173,7 +173,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -199,7 +199,7 @@
     <t>OmhHeader.dataPointId</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>OmhHeader.creationDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -240,7 +240,7 @@
     <t>OmhHeader.schemaId.namespace</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -319,7 +319,7 @@
     <t>OmhHeader.acquisitionProvenance.modality</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -394,67 +394,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -490,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
